--- a/test/results/01.BasicCodonUsage/E/E.RSCU.xlsx
+++ b/test/results/01.BasicCodonUsage/E/E.RSCU.xlsx
@@ -259,10 +259,10 @@
     <t>LC002520</t>
   </si>
   <si>
-    <t>KU955594</t>
+    <t>KF383119</t>
   </si>
   <si>
-    <t>KF383119</t>
+    <t>KU955594</t>
   </si>
   <si>
     <t>KF383115</t>
@@ -271,16 +271,16 @@
     <t>KF268948</t>
   </si>
   <si>
+    <t>KF268949</t>
+  </si>
+  <si>
     <t>KF268950</t>
   </si>
   <si>
-    <t>KF268949</t>
+    <t>HQ234500</t>
   </si>
   <si>
     <t>KF383116</t>
-  </si>
-  <si>
-    <t>HQ234500</t>
   </si>
   <si>
     <t>HQ234501</t>
@@ -292,13 +292,16 @@
     <t>KU955592</t>
   </si>
   <si>
-    <t>KU955591</t>
+    <t>KX601166</t>
   </si>
   <si>
     <t>KF383117</t>
   </si>
   <si>
-    <t>KX601166</t>
+    <t>KU955591</t>
+  </si>
+  <si>
+    <t>EU545988</t>
   </si>
   <si>
     <t>HQ234499</t>
@@ -307,13 +310,13 @@
     <t>KU681082</t>
   </si>
   <si>
-    <t>EU545988</t>
-  </si>
-  <si>
     <t>KU955593</t>
   </si>
   <si>
     <t>KX694532</t>
+  </si>
+  <si>
+    <t>KU681081</t>
   </si>
   <si>
     <t>KX813683</t>
@@ -322,16 +325,13 @@
     <t>KX447517</t>
   </si>
   <si>
-    <t>KU681081</t>
-  </si>
-  <si>
     <t>KU744693</t>
   </si>
   <si>
-    <t>KX197192</t>
+    <t>KU321639</t>
   </si>
   <si>
-    <t>KU321639</t>
+    <t>KX197192</t>
   </si>
   <si>
     <t>KU509998</t>
@@ -343,10 +343,10 @@
     <t>KX051563</t>
   </si>
   <si>
-    <t>KX673530</t>
+    <t>KX838906</t>
   </si>
   <si>
-    <t>KX838906</t>
+    <t>KX673530</t>
   </si>
   <si>
     <t>KX838904</t>
@@ -373,25 +373,25 @@
     <t>KX280026</t>
   </si>
   <si>
-    <t>KX056898</t>
-  </si>
-  <si>
     <t>KU955590</t>
   </si>
   <si>
     <t>KX766028</t>
   </si>
   <si>
-    <t>KU740184</t>
+    <t>KX056898</t>
   </si>
   <si>
-    <t>KU820898</t>
+    <t>KU740184</t>
   </si>
   <si>
     <t>KU761564</t>
   </si>
   <si>
     <t>KX087101</t>
+  </si>
+  <si>
+    <t>KU820898</t>
   </si>
   <si>
     <t>KU365778</t>
@@ -436,13 +436,13 @@
     <t>KX766029</t>
   </si>
   <si>
-    <t>KX446950</t>
-  </si>
-  <si>
     <t>KX247632</t>
   </si>
   <si>
     <t>KX446951</t>
+  </si>
+  <si>
+    <t>KX446950</t>
   </si>
   <si>
     <t>KU940228</t>
@@ -451,22 +451,22 @@
     <t>KX520666</t>
   </si>
   <si>
+    <t>KX197205</t>
+  </si>
+  <si>
     <t>KU729218</t>
   </si>
   <si>
-    <t>KX197205</t>
+    <t>KU497555</t>
+  </si>
+  <si>
+    <t>KU991811</t>
   </si>
   <si>
     <t>KX548902</t>
   </si>
   <si>
-    <t>KU991811</t>
-  </si>
-  <si>
     <t>KU647676</t>
-  </si>
-  <si>
-    <t>KU497555</t>
   </si>
   <si>
     <t>KU922923</t>
@@ -475,13 +475,16 @@
     <t>KU922960</t>
   </si>
   <si>
+    <t>KX198135</t>
+  </si>
+  <si>
     <t>KX702400</t>
   </si>
   <si>
-    <t>KX198135</t>
+    <t>KX247646</t>
   </si>
   <si>
-    <t>KX247646</t>
+    <t>KX087102</t>
   </si>
   <si>
     <t>KU820897</t>
@@ -490,7 +493,7 @@
     <t>KX156775</t>
   </si>
   <si>
-    <t>KX087102</t>
+    <t>KX156776</t>
   </si>
   <si>
     <t>KX156774</t>
@@ -502,16 +505,13 @@
     <t>KX447511</t>
   </si>
   <si>
-    <t>KX156776</t>
-  </si>
-  <si>
-    <t>KX369547</t>
-  </si>
-  <si>
     <t>KX447512</t>
   </si>
   <si>
     <t>KX447513</t>
+  </si>
+  <si>
+    <t>KX369547</t>
   </si>
   <si>
     <t>KX117076</t>
@@ -520,13 +520,13 @@
     <t>KU866423</t>
   </si>
   <si>
-    <t>KX266255</t>
-  </si>
-  <si>
     <t>KU955589</t>
   </si>
   <si>
     <t>KU820899</t>
+  </si>
+  <si>
+    <t>KX266255</t>
   </si>
   <si>
     <t>KX185891</t>
@@ -535,19 +535,19 @@
     <t>KU963796</t>
   </si>
   <si>
+    <t>KJ776791</t>
+  </si>
+  <si>
     <t>KX806557</t>
   </si>
   <si>
-    <t>KJ776791</t>
+    <t>KX447516</t>
   </si>
   <si>
     <t>KX447515</t>
   </si>
   <si>
     <t>KX447514</t>
-  </si>
-  <si>
-    <t>KX447516</t>
   </si>
   <si>
     <t>KX447509</t>
@@ -1565,16 +1565,16 @@
         <v>81</v>
       </c>
       <c r="B6">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="C6">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="D6">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="F6">
         <v>1.38</v>
@@ -1583,22 +1583,22 @@
         <v>0.62</v>
       </c>
       <c r="H6">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="I6">
-        <v>0.5600000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="J6">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="K6">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="L6">
-        <v>1.05</v>
+        <v>1.16</v>
       </c>
       <c r="M6">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="N6">
         <v>1.67</v>
@@ -1613,25 +1613,25 @@
         <v>0.65</v>
       </c>
       <c r="R6">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="S6">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="T6">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="V6">
         <v>1</v>
       </c>
       <c r="W6">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="X6">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="Y6">
         <v>0.5600000000000001</v>
@@ -1652,10 +1652,10 @@
         <v>1.81</v>
       </c>
       <c r="AE6">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="AF6">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="AG6">
         <v>2.75</v>
@@ -1676,22 +1676,22 @@
         <v>1.23</v>
       </c>
       <c r="AM6">
-        <v>3.18</v>
+        <v>3</v>
       </c>
       <c r="AN6">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AQ6">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR6">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AS6">
         <v>1.33</v>
@@ -1724,22 +1724,22 @@
         <v>0.68</v>
       </c>
       <c r="BC6">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="BD6">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="BE6">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="BF6">
-        <v>0.98</v>
+        <v>1.05</v>
       </c>
       <c r="BG6">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="BH6">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="7" spans="1:60">
@@ -1747,16 +1747,16 @@
         <v>82</v>
       </c>
       <c r="B7">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="C7">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="D7">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="E7">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1.38</v>
@@ -1765,22 +1765,22 @@
         <v>0.62</v>
       </c>
       <c r="H7">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="I7">
-        <v>0.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J7">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="K7">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="L7">
-        <v>1.16</v>
+        <v>1.05</v>
       </c>
       <c r="M7">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="N7">
         <v>1.67</v>
@@ -1795,25 +1795,25 @@
         <v>0.65</v>
       </c>
       <c r="R7">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="S7">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="V7">
         <v>1</v>
       </c>
       <c r="W7">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="X7">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="Y7">
         <v>0.5600000000000001</v>
@@ -1834,10 +1834,10 @@
         <v>1.81</v>
       </c>
       <c r="AE7">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF7">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AG7">
         <v>2.75</v>
@@ -1858,22 +1858,22 @@
         <v>1.23</v>
       </c>
       <c r="AM7">
-        <v>3</v>
+        <v>3.18</v>
       </c>
       <c r="AN7">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="AO7">
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="AQ7">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="AR7">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="AS7">
         <v>1.33</v>
@@ -1906,22 +1906,22 @@
         <v>0.68</v>
       </c>
       <c r="BC7">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="BD7">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="BE7">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="BF7">
-        <v>1.05</v>
+        <v>0.98</v>
       </c>
       <c r="BG7">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="BH7">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="8" spans="1:60">
@@ -2296,13 +2296,13 @@
         <v>1.3</v>
       </c>
       <c r="C10">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="D10">
         <v>0.32</v>
       </c>
       <c r="E10">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="F10">
         <v>1.23</v>
@@ -2311,49 +2311,49 @@
         <v>0.77</v>
       </c>
       <c r="H10">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="I10">
-        <v>0.77</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J10">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="K10">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="L10">
+        <v>0.95</v>
+      </c>
+      <c r="M10">
         <v>1.05</v>
       </c>
-      <c r="M10">
-        <v>0.95</v>
-      </c>
       <c r="N10">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="O10">
-        <v>0.73</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="P10">
-        <v>1.02</v>
+        <v>0.96</v>
       </c>
       <c r="Q10">
-        <v>0.65</v>
+        <v>0.59</v>
       </c>
       <c r="R10">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="U10">
         <v>1.05</v>
       </c>
       <c r="V10">
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
       <c r="W10">
         <v>0.76</v>
@@ -2368,34 +2368,34 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AA10">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AB10">
         <v>0.7</v>
       </c>
       <c r="AC10">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="AD10">
         <v>2.51</v>
       </c>
       <c r="AE10">
+        <v>0.88</v>
+      </c>
+      <c r="AF10">
         <v>1.12</v>
-      </c>
-      <c r="AF10">
-        <v>0.88</v>
       </c>
       <c r="AG10">
         <v>2.75</v>
       </c>
       <c r="AH10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI10">
         <v>0.25</v>
       </c>
       <c r="AJ10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AK10">
         <v>0.62</v>
@@ -2404,10 +2404,10 @@
         <v>1.38</v>
       </c>
       <c r="AM10">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AN10">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO10">
         <v>0.33</v>
@@ -2428,40 +2428,40 @@
         <v>0.5</v>
       </c>
       <c r="AU10">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AV10">
         <v>1.5</v>
       </c>
       <c r="AW10">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="AX10">
         <v>0.33</v>
       </c>
       <c r="AY10">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AZ10">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="BA10">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="BB10">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
       <c r="BC10">
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="BD10">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="BE10">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="BF10">
-        <v>1.12</v>
+        <v>0.86</v>
       </c>
       <c r="BG10">
         <v>1</v>
@@ -2478,13 +2478,13 @@
         <v>1.3</v>
       </c>
       <c r="C11">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="D11">
         <v>0.32</v>
       </c>
       <c r="E11">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="F11">
         <v>1.23</v>
@@ -2493,49 +2493,49 @@
         <v>0.77</v>
       </c>
       <c r="H11">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="I11">
-        <v>0.5600000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="J11">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="K11">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="L11">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="M11">
+        <v>0.95</v>
+      </c>
+      <c r="N11">
+        <v>1.6</v>
+      </c>
+      <c r="O11">
+        <v>0.73</v>
+      </c>
+      <c r="P11">
+        <v>1.02</v>
+      </c>
+      <c r="Q11">
+        <v>0.65</v>
+      </c>
+      <c r="R11">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="S11">
+        <v>1.06</v>
+      </c>
+      <c r="T11">
         <v>1.05</v>
-      </c>
-      <c r="N11">
-        <v>1.63</v>
-      </c>
-      <c r="O11">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="P11">
-        <v>0.96</v>
-      </c>
-      <c r="Q11">
-        <v>0.59</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>0.9</v>
       </c>
       <c r="U11">
         <v>1.05</v>
       </c>
       <c r="V11">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="W11">
         <v>0.76</v>
@@ -2550,34 +2550,34 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AA11">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AB11">
         <v>0.7</v>
       </c>
       <c r="AC11">
-        <v>0.42</v>
+        <v>0.28</v>
       </c>
       <c r="AD11">
         <v>2.51</v>
       </c>
       <c r="AE11">
+        <v>1.12</v>
+      </c>
+      <c r="AF11">
         <v>0.88</v>
-      </c>
-      <c r="AF11">
-        <v>1.12</v>
       </c>
       <c r="AG11">
         <v>2.75</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AI11">
         <v>0.25</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK11">
         <v>0.62</v>
@@ -2586,10 +2586,10 @@
         <v>1.38</v>
       </c>
       <c r="AM11">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="AN11">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO11">
         <v>0.33</v>
@@ -2610,40 +2610,40 @@
         <v>0.5</v>
       </c>
       <c r="AU11">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AV11">
         <v>1.5</v>
       </c>
       <c r="AW11">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AX11">
         <v>0.33</v>
       </c>
       <c r="AY11">
+        <v>1.37</v>
+      </c>
+      <c r="AZ11">
+        <v>1.37</v>
+      </c>
+      <c r="BA11">
+        <v>0.68</v>
+      </c>
+      <c r="BB11">
+        <v>0.59</v>
+      </c>
+      <c r="BC11">
+        <v>0.19</v>
+      </c>
+      <c r="BD11">
+        <v>1.3</v>
+      </c>
+      <c r="BE11">
         <v>1.4</v>
       </c>
-      <c r="AZ11">
-        <v>1.4</v>
-      </c>
-      <c r="BA11">
-        <v>0.7</v>
-      </c>
-      <c r="BB11">
-        <v>0.5</v>
-      </c>
-      <c r="BC11">
-        <v>0.38</v>
-      </c>
-      <c r="BD11">
-        <v>1.43</v>
-      </c>
-      <c r="BE11">
-        <v>1.33</v>
-      </c>
       <c r="BF11">
-        <v>0.86</v>
+        <v>1.12</v>
       </c>
       <c r="BG11">
         <v>1</v>
@@ -2657,58 +2657,58 @@
         <v>87</v>
       </c>
       <c r="B12">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="C12">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="D12">
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
       <c r="E12">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="F12">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="G12">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="H12">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="I12">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="J12">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="K12">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="L12">
-        <v>0.59</v>
+        <v>0.89</v>
       </c>
       <c r="M12">
-        <v>1.41</v>
+        <v>1.11</v>
       </c>
       <c r="N12">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="O12">
-        <v>0.44</v>
+        <v>0.53</v>
       </c>
       <c r="P12">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="Q12">
-        <v>1.02</v>
+        <v>0.91</v>
       </c>
       <c r="R12">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="S12">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -2720,10 +2720,10 @@
         <v>0.43</v>
       </c>
       <c r="W12">
-        <v>0.55</v>
+        <v>0.62</v>
       </c>
       <c r="X12">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="Y12">
         <v>0.42</v>
@@ -2732,22 +2732,22 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AA12">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AB12">
         <v>0.84</v>
       </c>
       <c r="AC12">
-        <v>0.42</v>
+        <v>0.14</v>
       </c>
       <c r="AD12">
         <v>2.37</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AF12">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AG12">
         <v>2.75</v>
@@ -2768,70 +2768,70 @@
         <v>1.38</v>
       </c>
       <c r="AM12">
-        <v>2.67</v>
+        <v>2.53</v>
       </c>
       <c r="AN12">
-        <v>2</v>
+        <v>2.21</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AQ12">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR12">
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT12">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU12">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AV12">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AW12">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AX12">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AY12">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="AZ12">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="BA12">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="BB12">
+        <v>0.74</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0.95</v>
+      </c>
+      <c r="BE12">
+        <v>1.81</v>
+      </c>
+      <c r="BF12">
+        <v>1.24</v>
+      </c>
+      <c r="BG12">
+        <v>1.2</v>
+      </c>
+      <c r="BH12">
         <v>0.8</v>
-      </c>
-      <c r="BC12">
-        <v>0.19</v>
-      </c>
-      <c r="BD12">
-        <v>1.12</v>
-      </c>
-      <c r="BE12">
-        <v>1.67</v>
-      </c>
-      <c r="BF12">
-        <v>1.02</v>
-      </c>
-      <c r="BG12">
-        <v>1</v>
-      </c>
-      <c r="BH12">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:60">
@@ -2839,58 +2839,58 @@
         <v>88</v>
       </c>
       <c r="B13">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="C13">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="D13">
-        <v>0.33</v>
+        <v>0.21</v>
       </c>
       <c r="E13">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="F13">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="G13">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="H13">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="I13">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="J13">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="K13">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="L13">
-        <v>0.89</v>
+        <v>0.59</v>
       </c>
       <c r="M13">
-        <v>1.11</v>
+        <v>1.41</v>
       </c>
       <c r="N13">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="O13">
-        <v>0.53</v>
+        <v>0.44</v>
       </c>
       <c r="P13">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="Q13">
-        <v>0.91</v>
+        <v>1.02</v>
       </c>
       <c r="R13">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="S13">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="T13">
         <v>1</v>
@@ -2902,10 +2902,10 @@
         <v>0.43</v>
       </c>
       <c r="W13">
-        <v>0.62</v>
+        <v>0.55</v>
       </c>
       <c r="X13">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="Y13">
         <v>0.42</v>
@@ -2914,22 +2914,22 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AA13">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="AB13">
         <v>0.84</v>
       </c>
       <c r="AC13">
-        <v>0.14</v>
+        <v>0.42</v>
       </c>
       <c r="AD13">
         <v>2.37</v>
       </c>
       <c r="AE13">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AG13">
         <v>2.75</v>
@@ -2950,70 +2950,70 @@
         <v>1.38</v>
       </c>
       <c r="AM13">
-        <v>2.53</v>
+        <v>2.67</v>
       </c>
       <c r="AN13">
-        <v>2.21</v>
+        <v>2</v>
       </c>
       <c r="AO13">
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ13">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR13">
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AT13">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU13">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AV13">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="AW13">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="AX13">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AY13">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AZ13">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="BA13">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="BB13">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
       <c r="BC13">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="BD13">
-        <v>0.95</v>
+        <v>1.12</v>
       </c>
       <c r="BE13">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="BF13">
-        <v>1.24</v>
+        <v>1.02</v>
       </c>
       <c r="BG13">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="BH13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:60">
@@ -3585,16 +3585,16 @@
         <v>0.77</v>
       </c>
       <c r="H17">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="I17">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="J17">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="K17">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="L17">
         <v>0.84</v>
@@ -3603,22 +3603,22 @@
         <v>1.16</v>
       </c>
       <c r="N17">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="O17">
         <v>0.44</v>
       </c>
       <c r="P17">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="Q17">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="R17">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="S17">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T17">
         <v>0.9</v>
@@ -3714,16 +3714,16 @@
         <v>0.67</v>
       </c>
       <c r="AY17">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="AZ17">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="BA17">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="BB17">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="BC17">
         <v>0.1</v>
@@ -3949,16 +3949,16 @@
         <v>0.77</v>
       </c>
       <c r="H19">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="I19">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="J19">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="K19">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="L19">
         <v>0.84</v>
@@ -3967,22 +3967,22 @@
         <v>1.16</v>
       </c>
       <c r="N19">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="O19">
         <v>0.44</v>
       </c>
       <c r="P19">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="Q19">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="R19">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="S19">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T19">
         <v>0.9</v>
@@ -4078,16 +4078,16 @@
         <v>0.67</v>
       </c>
       <c r="AY19">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="AZ19">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="BA19">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="BB19">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="BC19">
         <v>0.1</v>
@@ -4113,16 +4113,16 @@
         <v>95</v>
       </c>
       <c r="B20">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="C20">
-        <v>1.23</v>
+        <v>0.9</v>
       </c>
       <c r="D20">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="E20">
-        <v>1.13</v>
+        <v>1.4</v>
       </c>
       <c r="F20">
         <v>1.23</v>
@@ -4131,88 +4131,88 @@
         <v>0.77</v>
       </c>
       <c r="H20">
-        <v>1.15</v>
+        <v>1.28</v>
       </c>
       <c r="I20">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="J20">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="K20">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="L20">
-        <v>0.82</v>
+        <v>0.71</v>
       </c>
       <c r="M20">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="N20">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="O20">
         <v>0.65</v>
       </c>
       <c r="P20">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
       <c r="Q20">
         <v>0.65</v>
       </c>
       <c r="R20">
+        <v>1.06</v>
+      </c>
+      <c r="S20">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="T20">
+        <v>0.95</v>
+      </c>
+      <c r="U20">
+        <v>1.09</v>
+      </c>
+      <c r="V20">
+        <v>0.95</v>
+      </c>
+      <c r="W20">
+        <v>0.76</v>
+      </c>
+      <c r="X20">
+        <v>1.24</v>
+      </c>
+      <c r="Y20">
+        <v>0.27</v>
+      </c>
+      <c r="Z20">
+        <v>0.27</v>
+      </c>
+      <c r="AA20">
+        <v>1.87</v>
+      </c>
+      <c r="AB20">
+        <v>1.07</v>
+      </c>
+      <c r="AC20">
+        <v>0.53</v>
+      </c>
+      <c r="AD20">
+        <v>2</v>
+      </c>
+      <c r="AE20">
+        <v>0.88</v>
+      </c>
+      <c r="AF20">
+        <v>1.12</v>
+      </c>
+      <c r="AG20">
+        <v>2.25</v>
+      </c>
+      <c r="AH20">
+        <v>0.5</v>
+      </c>
+      <c r="AI20">
         <v>0.75</v>
-      </c>
-      <c r="S20">
-        <v>1.25</v>
-      </c>
-      <c r="T20">
-        <v>1.09</v>
-      </c>
-      <c r="U20">
-        <v>1.23</v>
-      </c>
-      <c r="V20">
-        <v>0.68</v>
-      </c>
-      <c r="W20">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="X20">
-        <v>1.31</v>
-      </c>
-      <c r="Y20">
-        <v>0.53</v>
-      </c>
-      <c r="Z20">
-        <v>0.4</v>
-      </c>
-      <c r="AA20">
-        <v>1.33</v>
-      </c>
-      <c r="AB20">
-        <v>0.93</v>
-      </c>
-      <c r="AC20">
-        <v>0.4</v>
-      </c>
-      <c r="AD20">
-        <v>2.4</v>
-      </c>
-      <c r="AE20">
-        <v>1</v>
-      </c>
-      <c r="AF20">
-        <v>1</v>
-      </c>
-      <c r="AG20">
-        <v>2.5</v>
-      </c>
-      <c r="AH20">
-        <v>0.5</v>
-      </c>
-      <c r="AI20">
-        <v>0.5</v>
       </c>
       <c r="AJ20">
         <v>0.5</v>
@@ -4248,10 +4248,10 @@
         <v>0.49</v>
       </c>
       <c r="AU20">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="AV20">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="AW20">
         <v>0.32</v>
@@ -4260,34 +4260,34 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AY20">
+        <v>1.5</v>
+      </c>
+      <c r="AZ20">
+        <v>1</v>
+      </c>
+      <c r="BA20">
+        <v>0.5</v>
+      </c>
+      <c r="BB20">
+        <v>1</v>
+      </c>
+      <c r="BC20">
+        <v>0.51</v>
+      </c>
+      <c r="BD20">
+        <v>1.13</v>
+      </c>
+      <c r="BE20">
+        <v>1.03</v>
+      </c>
+      <c r="BF20">
+        <v>1.33</v>
+      </c>
+      <c r="BG20">
         <v>1.2</v>
       </c>
-      <c r="AZ20">
-        <v>1</v>
-      </c>
-      <c r="BA20">
-        <v>0.7</v>
-      </c>
-      <c r="BB20">
-        <v>1.1</v>
-      </c>
-      <c r="BC20">
-        <v>0.41</v>
-      </c>
-      <c r="BD20">
-        <v>0.92</v>
-      </c>
-      <c r="BE20">
-        <v>1.23</v>
-      </c>
-      <c r="BF20">
-        <v>1.44</v>
-      </c>
-      <c r="BG20">
-        <v>1.4</v>
-      </c>
       <c r="BH20">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21" spans="1:60">
@@ -4295,109 +4295,109 @@
         <v>96</v>
       </c>
       <c r="B21">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="C21">
-        <v>1.03</v>
+        <v>1.23</v>
       </c>
       <c r="D21">
-        <v>0.41</v>
+        <v>0.51</v>
       </c>
       <c r="E21">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="F21">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="G21">
-        <v>0.62</v>
+        <v>0.77</v>
       </c>
       <c r="H21">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="I21">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="J21">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="K21">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="L21">
-        <v>0.9399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="M21">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="N21">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="O21">
         <v>0.65</v>
       </c>
       <c r="P21">
+        <v>0.87</v>
+      </c>
+      <c r="Q21">
+        <v>0.65</v>
+      </c>
+      <c r="R21">
+        <v>0.75</v>
+      </c>
+      <c r="S21">
+        <v>1.25</v>
+      </c>
+      <c r="T21">
         <v>1.09</v>
       </c>
-      <c r="Q21">
-        <v>0.58</v>
-      </c>
-      <c r="R21">
-        <v>1.06</v>
-      </c>
-      <c r="S21">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="T21">
-        <v>0.95</v>
-      </c>
       <c r="U21">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="V21">
-        <v>0.95</v>
+        <v>0.68</v>
       </c>
       <c r="W21">
-        <v>0.76</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="X21">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="Y21">
-        <v>0.27</v>
+        <v>0.53</v>
       </c>
       <c r="Z21">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
       <c r="AA21">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AB21">
-        <v>1.07</v>
+        <v>0.93</v>
       </c>
       <c r="AC21">
-        <v>0.53</v>
+        <v>0.4</v>
       </c>
       <c r="AD21">
-        <v>1.87</v>
+        <v>2.4</v>
       </c>
       <c r="AE21">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AH21">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AI21">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AJ21">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AK21">
         <v>1.08</v>
@@ -4430,10 +4430,10 @@
         <v>0.49</v>
       </c>
       <c r="AU21">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="AV21">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="AW21">
         <v>0.32</v>
@@ -4442,25 +4442,25 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AY21">
-        <v>1.46</v>
+        <v>1.2</v>
       </c>
       <c r="AZ21">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="BA21">
-        <v>0.49</v>
+        <v>0.7</v>
       </c>
       <c r="BB21">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="BC21">
-        <v>0.51</v>
+        <v>0.41</v>
       </c>
       <c r="BD21">
-        <v>1.03</v>
+        <v>0.92</v>
       </c>
       <c r="BE21">
-        <v>1.03</v>
+        <v>1.23</v>
       </c>
       <c r="BF21">
         <v>1.44</v>
@@ -4477,52 +4477,52 @@
         <v>97</v>
       </c>
       <c r="B22">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="C22">
-        <v>0.9</v>
+        <v>1.03</v>
       </c>
       <c r="D22">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="E22">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="F22">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="G22">
-        <v>0.77</v>
+        <v>0.62</v>
       </c>
       <c r="H22">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="I22">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="J22">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="K22">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="L22">
-        <v>0.71</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M22">
-        <v>1.29</v>
+        <v>1.06</v>
       </c>
       <c r="N22">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="O22">
         <v>0.65</v>
       </c>
       <c r="P22">
-        <v>0.95</v>
+        <v>1.09</v>
       </c>
       <c r="Q22">
-        <v>0.65</v>
+        <v>0.58</v>
       </c>
       <c r="R22">
         <v>1.06</v>
@@ -4552,7 +4552,7 @@
         <v>0.27</v>
       </c>
       <c r="AA22">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AB22">
         <v>1.07</v>
@@ -4561,7 +4561,7 @@
         <v>0.53</v>
       </c>
       <c r="AD22">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AE22">
         <v>0.88</v>
@@ -4573,13 +4573,13 @@
         <v>2.25</v>
       </c>
       <c r="AH22">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AI22">
         <v>0.75</v>
       </c>
       <c r="AJ22">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AK22">
         <v>1.08</v>
@@ -4624,34 +4624,34 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AY22">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AZ22">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="BA22">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="BB22">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="BC22">
         <v>0.51</v>
       </c>
       <c r="BD22">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="BE22">
         <v>1.03</v>
       </c>
       <c r="BF22">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="BG22">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="BH22">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="1:60">
@@ -5023,16 +5023,16 @@
         <v>100</v>
       </c>
       <c r="B25">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="C25">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="D25">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="E25">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="F25">
         <v>1.23</v>
@@ -5059,16 +5059,16 @@
         <v>1.18</v>
       </c>
       <c r="N25">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="O25">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
       <c r="P25">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="Q25">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="R25">
         <v>1.41</v>
@@ -5095,13 +5095,13 @@
         <v>0.27</v>
       </c>
       <c r="Z25">
-        <v>0.27</v>
+        <v>0.13</v>
       </c>
       <c r="AA25">
         <v>1.87</v>
       </c>
       <c r="AB25">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AC25">
         <v>0.53</v>
@@ -5119,13 +5119,13 @@
         <v>2.25</v>
       </c>
       <c r="AH25">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AI25">
         <v>0.75</v>
       </c>
       <c r="AJ25">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AK25">
         <v>1.23</v>
@@ -5152,46 +5152,46 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT25">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AU25">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AV25">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AW25">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="AX25">
-        <v>0.8100000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AY25">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AZ25">
-        <v>1.1</v>
+        <v>0.98</v>
       </c>
       <c r="BA25">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="BB25">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="BC25">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="BD25">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="BE25">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="BF25">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="BG25">
         <v>1.4</v>
@@ -5205,16 +5205,16 @@
         <v>101</v>
       </c>
       <c r="B26">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="C26">
-        <v>1.1</v>
+        <v>0.92</v>
       </c>
       <c r="D26">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="E26">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="F26">
         <v>1.23</v>
@@ -5241,7 +5241,7 @@
         <v>1.18</v>
       </c>
       <c r="N26">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="O26">
         <v>0.73</v>
@@ -5250,7 +5250,7 @@
         <v>0.95</v>
       </c>
       <c r="Q26">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="R26">
         <v>1.41</v>
@@ -5259,13 +5259,13 @@
         <v>0.59</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="U26">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="V26">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="W26">
         <v>0.76</v>
@@ -5301,13 +5301,13 @@
         <v>2.25</v>
       </c>
       <c r="AH26">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="AI26">
         <v>0.75</v>
       </c>
       <c r="AJ26">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AK26">
         <v>1.23</v>
@@ -5334,10 +5334,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="AT26">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AU26">
         <v>1.78</v>
@@ -5355,25 +5355,25 @@
         <v>1.5</v>
       </c>
       <c r="AZ26">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="BA26">
         <v>0.4</v>
       </c>
       <c r="BB26">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="BC26">
         <v>0.53</v>
       </c>
       <c r="BD26">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="BE26">
         <v>0.95</v>
       </c>
       <c r="BF26">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="BG26">
         <v>1.4</v>
@@ -5387,16 +5387,16 @@
         <v>102</v>
       </c>
       <c r="B27">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="C27">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="D27">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="E27">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="F27">
         <v>1.23</v>
@@ -5423,16 +5423,16 @@
         <v>1.18</v>
       </c>
       <c r="N27">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="O27">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="P27">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="Q27">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="R27">
         <v>1.41</v>
@@ -5441,13 +5441,13 @@
         <v>0.59</v>
       </c>
       <c r="T27">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="U27">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="V27">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="W27">
         <v>0.76</v>
@@ -5459,13 +5459,13 @@
         <v>0.27</v>
       </c>
       <c r="Z27">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
       <c r="AA27">
         <v>1.87</v>
       </c>
       <c r="AB27">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="AC27">
         <v>0.53</v>
@@ -5483,13 +5483,13 @@
         <v>2.25</v>
       </c>
       <c r="AH27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AI27">
         <v>0.75</v>
       </c>
       <c r="AJ27">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AK27">
         <v>1.23</v>
@@ -5516,46 +5516,46 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AT27">
-        <v>0.67</v>
+        <v>0.49</v>
       </c>
       <c r="AU27">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AV27">
+        <v>1.3</v>
+      </c>
+      <c r="AW27">
+        <v>0.32</v>
+      </c>
+      <c r="AX27">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AY27">
         <v>1.5</v>
       </c>
-      <c r="AW27">
-        <v>0.33</v>
-      </c>
-      <c r="AX27">
-        <v>0.67</v>
-      </c>
-      <c r="AY27">
-        <v>1.46</v>
-      </c>
       <c r="AZ27">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="BA27">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="BB27">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="BC27">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="BD27">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="BE27">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="BF27">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="BG27">
         <v>1.4</v>
@@ -6736,7 +6736,7 @@
         <v>0.4</v>
       </c>
       <c r="AA34">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AB34">
         <v>0.93</v>
@@ -6745,7 +6745,7 @@
         <v>0.53</v>
       </c>
       <c r="AD34">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AE34">
         <v>1</v>
@@ -6820,13 +6820,13 @@
         <v>1.1</v>
       </c>
       <c r="BC34">
-        <v>0.42</v>
+        <v>0.53</v>
       </c>
       <c r="BD34">
         <v>1.26</v>
       </c>
       <c r="BE34">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="BF34">
         <v>1.26</v>
@@ -6918,7 +6918,7 @@
         <v>0.4</v>
       </c>
       <c r="AA35">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AB35">
         <v>0.93</v>
@@ -6927,7 +6927,7 @@
         <v>0.53</v>
       </c>
       <c r="AD35">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AE35">
         <v>1</v>
@@ -7002,13 +7002,13 @@
         <v>1.1</v>
       </c>
       <c r="BC35">
-        <v>0.53</v>
+        <v>0.42</v>
       </c>
       <c r="BD35">
         <v>1.26</v>
       </c>
       <c r="BE35">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="BF35">
         <v>1.26</v>
@@ -8663,7 +8663,7 @@
         <v>120</v>
       </c>
       <c r="B45">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="C45">
         <v>1.03</v>
@@ -8672,7 +8672,7 @@
         <v>0.41</v>
       </c>
       <c r="E45">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="F45">
         <v>1.23</v>
@@ -8726,10 +8726,10 @@
         <v>0.95</v>
       </c>
       <c r="W45">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="X45">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="Y45">
         <v>0.27</v>
@@ -8825,13 +8825,13 @@
         <v>0.53</v>
       </c>
       <c r="BD45">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="BE45">
         <v>0.95</v>
       </c>
       <c r="BF45">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="BG45">
         <v>1.4</v>
@@ -8845,7 +8845,7 @@
         <v>121</v>
       </c>
       <c r="B46">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="C46">
         <v>1.03</v>
@@ -8854,7 +8854,7 @@
         <v>0.41</v>
       </c>
       <c r="E46">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="F46">
         <v>1.23</v>
@@ -8908,10 +8908,10 @@
         <v>0.95</v>
       </c>
       <c r="W46">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="X46">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="Y46">
         <v>0.27</v>
@@ -9007,13 +9007,13 @@
         <v>0.53</v>
       </c>
       <c r="BD46">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="BE46">
         <v>0.95</v>
       </c>
       <c r="BF46">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="BG46">
         <v>1.4</v>
@@ -9427,7 +9427,7 @@
         <v>1.18</v>
       </c>
       <c r="N49">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="O49">
         <v>0.73</v>
@@ -9436,7 +9436,7 @@
         <v>0.95</v>
       </c>
       <c r="Q49">
-        <v>0.51</v>
+        <v>0.58</v>
       </c>
       <c r="R49">
         <v>1.41</v>
@@ -9454,43 +9454,43 @@
         <v>0.95</v>
       </c>
       <c r="W49">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="X49">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="Y49">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="Z49">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="AA49">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AB49">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AC49">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="AD49">
+        <v>1.96</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
+      </c>
+      <c r="AF49">
+        <v>1</v>
+      </c>
+      <c r="AG49">
         <v>2</v>
       </c>
-      <c r="AE49">
-        <v>1</v>
-      </c>
-      <c r="AF49">
-        <v>1</v>
-      </c>
-      <c r="AG49">
-        <v>2.25</v>
-      </c>
       <c r="AH49">
         <v>0.5</v>
       </c>
       <c r="AI49">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AJ49">
         <v>0.5</v>
@@ -9532,10 +9532,10 @@
         <v>1.3</v>
       </c>
       <c r="AW49">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="AX49">
-        <v>0.8100000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AY49">
         <v>1.5</v>
@@ -9550,16 +9550,16 @@
         <v>1.2</v>
       </c>
       <c r="BC49">
-        <v>0.53</v>
+        <v>0.43</v>
       </c>
       <c r="BD49">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BE49">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="BF49">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BG49">
         <v>1.4</v>
@@ -9609,7 +9609,7 @@
         <v>1.18</v>
       </c>
       <c r="N50">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="O50">
         <v>0.73</v>
@@ -9618,7 +9618,7 @@
         <v>0.95</v>
       </c>
       <c r="Q50">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="R50">
         <v>1.41</v>
@@ -9636,28 +9636,28 @@
         <v>0.95</v>
       </c>
       <c r="W50">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="X50">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="Y50">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="Z50">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="AA50">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AB50">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AC50">
-        <v>0.65</v>
+        <v>0.53</v>
       </c>
       <c r="AD50">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="AE50">
         <v>1</v>
@@ -9666,13 +9666,13 @@
         <v>1</v>
       </c>
       <c r="AG50">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AH50">
         <v>0.5</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AJ50">
         <v>0.5</v>
@@ -9714,10 +9714,10 @@
         <v>1.3</v>
       </c>
       <c r="AW50">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="AX50">
-        <v>0.97</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AY50">
         <v>1.5</v>
@@ -9732,16 +9732,16 @@
         <v>1.2</v>
       </c>
       <c r="BC50">
-        <v>0.43</v>
+        <v>0.53</v>
       </c>
       <c r="BD50">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BE50">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="BF50">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BG50">
         <v>1.4</v>
@@ -12432,10 +12432,10 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="AT65">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AU65">
         <v>1.95</v>
@@ -12796,10 +12796,10 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="AT67">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AU67">
         <v>1.95</v>
@@ -13300,10 +13300,10 @@
         <v>2</v>
       </c>
       <c r="AE70">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AF70">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="AG70">
         <v>2.25</v>
@@ -13342,10 +13342,10 @@
         <v>0</v>
       </c>
       <c r="AS70">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AT70">
-        <v>0.49</v>
+        <v>0.32</v>
       </c>
       <c r="AU70">
         <v>1.95</v>
@@ -13360,16 +13360,16 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AY70">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="AZ70">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="BA70">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="BB70">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="BC70">
         <v>0.53</v>
@@ -13482,10 +13482,10 @@
         <v>2</v>
       </c>
       <c r="AE71">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AF71">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AG71">
         <v>2.25</v>
@@ -13524,10 +13524,10 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AT71">
-        <v>0.32</v>
+        <v>0.49</v>
       </c>
       <c r="AU71">
         <v>1.95</v>
@@ -13542,16 +13542,16 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AY71">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="AZ71">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="BA71">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="BB71">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="BC71">
         <v>0.53</v>
@@ -13613,13 +13613,13 @@
         <v>1.18</v>
       </c>
       <c r="N72">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="O72">
         <v>0.73</v>
       </c>
       <c r="P72">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="Q72">
         <v>0.58</v>
@@ -13646,22 +13646,22 @@
         <v>1.24</v>
       </c>
       <c r="Y72">
+        <v>0.13</v>
+      </c>
+      <c r="Z72">
         <v>0.27</v>
       </c>
-      <c r="Z72">
-        <v>0</v>
-      </c>
       <c r="AA72">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="AB72">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
       <c r="AC72">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="AD72">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="AE72">
         <v>1</v>
@@ -13706,34 +13706,34 @@
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AT72">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AU72">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AV72">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AW72">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="AX72">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AY72">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AZ72">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="BA72">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="BB72">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="BC72">
         <v>0.53</v>
@@ -13944,13 +13944,13 @@
         <v>1.33</v>
       </c>
       <c r="C74">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="D74">
         <v>0.41</v>
       </c>
       <c r="E74">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="F74">
         <v>1.23</v>
@@ -14013,19 +14013,19 @@
         <v>0.27</v>
       </c>
       <c r="Z74">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AA74">
         <v>1.73</v>
       </c>
       <c r="AB74">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="AC74">
-        <v>0.53</v>
+        <v>0.4</v>
       </c>
       <c r="AD74">
-        <v>2.13</v>
+        <v>2.27</v>
       </c>
       <c r="AE74">
         <v>1</v>
@@ -14126,13 +14126,13 @@
         <v>1.33</v>
       </c>
       <c r="C75">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="D75">
         <v>0.41</v>
       </c>
       <c r="E75">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="F75">
         <v>1.23</v>
@@ -14159,13 +14159,13 @@
         <v>1.18</v>
       </c>
       <c r="N75">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="O75">
         <v>0.73</v>
       </c>
       <c r="P75">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="Q75">
         <v>0.58</v>
@@ -14192,22 +14192,22 @@
         <v>1.24</v>
       </c>
       <c r="Y75">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
       <c r="Z75">
         <v>0.27</v>
       </c>
       <c r="AA75">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="AB75">
         <v>1.07</v>
       </c>
       <c r="AC75">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="AD75">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AE75">
         <v>1</v>
@@ -14252,34 +14252,34 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT75">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AU75">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AV75">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AW75">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AX75">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AY75">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AZ75">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="BA75">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="BB75">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="BC75">
         <v>0.53</v>
@@ -15436,13 +15436,13 @@
         <v>1.75</v>
       </c>
       <c r="O82">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="P82">
         <v>0.95</v>
       </c>
       <c r="Q82">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="R82">
         <v>1.41</v>
@@ -15618,13 +15618,13 @@
         <v>1.75</v>
       </c>
       <c r="O83">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="P83">
         <v>0.95</v>
       </c>
       <c r="Q83">
-        <v>0.51</v>
+        <v>0.58</v>
       </c>
       <c r="R83">
         <v>1.41</v>
@@ -16018,7 +16018,7 @@
         <v>0.27</v>
       </c>
       <c r="AA85">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="AB85">
         <v>1.07</v>
@@ -16027,7 +16027,7 @@
         <v>0.53</v>
       </c>
       <c r="AD85">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AE85">
         <v>1</v>
@@ -16105,13 +16105,13 @@
         <v>0.53</v>
       </c>
       <c r="BD85">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="BE85">
         <v>0.95</v>
       </c>
       <c r="BF85">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="BG85">
         <v>1.4</v>
@@ -16287,13 +16287,13 @@
         <v>0.53</v>
       </c>
       <c r="BD86">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="BE86">
         <v>0.95</v>
       </c>
       <c r="BF86">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="BG86">
         <v>1.4</v>
@@ -16382,7 +16382,7 @@
         <v>0.27</v>
       </c>
       <c r="AA87">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="AB87">
         <v>1.07</v>
@@ -16391,7 +16391,7 @@
         <v>0.53</v>
       </c>
       <c r="AD87">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AE87">
         <v>1</v>
@@ -16570,10 +16570,10 @@
         <v>1.07</v>
       </c>
       <c r="AC88">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AD88">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AE88">
         <v>1</v>
@@ -16585,13 +16585,13 @@
         <v>2.25</v>
       </c>
       <c r="AH88">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AI88">
         <v>0.75</v>
       </c>
       <c r="AJ88">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AK88">
         <v>1.23</v>
@@ -16752,10 +16752,10 @@
         <v>1.07</v>
       </c>
       <c r="AC89">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="AD89">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AE89">
         <v>1</v>
@@ -16767,13 +16767,13 @@
         <v>2.25</v>
       </c>
       <c r="AH89">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AI89">
         <v>0.75</v>
       </c>
       <c r="AJ89">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AK89">
         <v>1.23</v>
@@ -18312,13 +18312,13 @@
         <v>1.33</v>
       </c>
       <c r="C98">
-        <v>1.03</v>
+        <v>0.92</v>
       </c>
       <c r="D98">
         <v>0.41</v>
       </c>
       <c r="E98">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="F98">
         <v>1.23</v>
@@ -18471,13 +18471,13 @@
         <v>0.53</v>
       </c>
       <c r="BD98">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="BE98">
         <v>0.95</v>
       </c>
       <c r="BF98">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="BG98">
         <v>1.4</v>
@@ -18494,13 +18494,13 @@
         <v>1.33</v>
       </c>
       <c r="C99">
-        <v>0.92</v>
+        <v>1.03</v>
       </c>
       <c r="D99">
         <v>0.41</v>
       </c>
       <c r="E99">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="F99">
         <v>1.23</v>
@@ -18653,13 +18653,13 @@
         <v>0.53</v>
       </c>
       <c r="BD99">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="BE99">
         <v>0.95</v>
       </c>
       <c r="BF99">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="BG99">
         <v>1.4</v>
@@ -18709,22 +18709,22 @@
         <v>1.18</v>
       </c>
       <c r="N100">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="O100">
         <v>0.73</v>
       </c>
       <c r="P100">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="Q100">
         <v>0.58</v>
       </c>
       <c r="R100">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="S100">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="T100">
         <v>0.95</v>
@@ -18844,10 +18844,10 @@
         <v>1.26</v>
       </c>
       <c r="BG100">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="BH100">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="101" spans="1:60">
@@ -18891,22 +18891,22 @@
         <v>1.18</v>
       </c>
       <c r="N101">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="O101">
         <v>0.73</v>
       </c>
       <c r="P101">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
       <c r="Q101">
         <v>0.58</v>
       </c>
       <c r="R101">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="S101">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="T101">
         <v>0.95</v>
@@ -18975,13 +18975,13 @@
         <v>0</v>
       </c>
       <c r="AP101">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AQ101">
         <v>0.33</v>
       </c>
       <c r="AR101">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AS101">
         <v>1.3</v>
@@ -19026,10 +19026,10 @@
         <v>1.26</v>
       </c>
       <c r="BG101">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="BH101">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="102" spans="1:60">
@@ -19073,13 +19073,13 @@
         <v>1.18</v>
       </c>
       <c r="N102">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="O102">
         <v>0.73</v>
       </c>
       <c r="P102">
-        <v>1.02</v>
+        <v>0.87</v>
       </c>
       <c r="Q102">
         <v>0.58</v>
@@ -19157,13 +19157,13 @@
         <v>0</v>
       </c>
       <c r="AP102">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AQ102">
         <v>0.33</v>
       </c>
       <c r="AR102">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AS102">
         <v>1.3</v>

--- a/test/results/01.BasicCodonUsage/E/E.RSCU.xlsx
+++ b/test/results/01.BasicCodonUsage/E/E.RSCU.xlsx
@@ -253,13 +253,13 @@
     <t>TAT</t>
   </si>
   <si>
-    <t>KF383118</t>
+    <t>KF383119</t>
   </si>
   <si>
     <t>LC002520</t>
   </si>
   <si>
-    <t>KF383119</t>
+    <t>KF383118</t>
   </si>
   <si>
     <t>KU955594</t>
@@ -283,10 +283,10 @@
     <t>KF383116</t>
   </si>
   <si>
-    <t>HQ234501</t>
+    <t>KU955595</t>
   </si>
   <si>
-    <t>KU955595</t>
+    <t>HQ234501</t>
   </si>
   <si>
     <t>KU955592</t>
@@ -295,31 +295,31 @@
     <t>KX601166</t>
   </si>
   <si>
+    <t>KU955591</t>
+  </si>
+  <si>
     <t>KF383117</t>
   </si>
   <si>
-    <t>KU955591</t>
+    <t>HQ234499</t>
+  </si>
+  <si>
+    <t>KU955593</t>
+  </si>
+  <si>
+    <t>KU681082</t>
   </si>
   <si>
     <t>EU545988</t>
   </si>
   <si>
-    <t>HQ234499</t>
-  </si>
-  <si>
-    <t>KU681082</t>
-  </si>
-  <si>
-    <t>KU955593</t>
-  </si>
-  <si>
     <t>KX694532</t>
   </si>
   <si>
-    <t>KU681081</t>
+    <t>KX813683</t>
   </si>
   <si>
-    <t>KX813683</t>
+    <t>KU681081</t>
   </si>
   <si>
     <t>KX447517</t>
@@ -373,13 +373,13 @@
     <t>KX280026</t>
   </si>
   <si>
-    <t>KU955590</t>
+    <t>KX056898</t>
   </si>
   <si>
     <t>KX766028</t>
   </si>
   <si>
-    <t>KX056898</t>
+    <t>KU955590</t>
   </si>
   <si>
     <t>KU740184</t>
@@ -388,22 +388,22 @@
     <t>KU761564</t>
   </si>
   <si>
-    <t>KX087101</t>
-  </si>
-  <si>
     <t>KU820898</t>
   </si>
   <si>
     <t>KU365778</t>
   </si>
   <si>
+    <t>KX087101</t>
+  </si>
+  <si>
     <t>KU758877</t>
   </si>
   <si>
-    <t>KU937936</t>
+    <t>KU312312</t>
   </si>
   <si>
-    <t>KU312312</t>
+    <t>KU937936</t>
   </si>
   <si>
     <t>KU365779</t>
@@ -421,10 +421,10 @@
     <t>KU870645</t>
   </si>
   <si>
-    <t>KX694534</t>
+    <t>KX262887</t>
   </si>
   <si>
-    <t>KX262887</t>
+    <t>KX694534</t>
   </si>
   <si>
     <t>KU501217</t>
@@ -436,13 +436,13 @@
     <t>KX766029</t>
   </si>
   <si>
-    <t>KX247632</t>
+    <t>KX446950</t>
   </si>
   <si>
     <t>KX446951</t>
   </si>
   <si>
-    <t>KX446950</t>
+    <t>KX247632</t>
   </si>
   <si>
     <t>KU940228</t>
@@ -451,10 +451,10 @@
     <t>KX520666</t>
   </si>
   <si>
-    <t>KX197205</t>
+    <t>KU729218</t>
   </si>
   <si>
-    <t>KU729218</t>
+    <t>KX197205</t>
   </si>
   <si>
     <t>KU497555</t>
@@ -469,10 +469,10 @@
     <t>KU647676</t>
   </si>
   <si>
-    <t>KU922923</t>
+    <t>KU922960</t>
   </si>
   <si>
-    <t>KU922960</t>
+    <t>KU922923</t>
   </si>
   <si>
     <t>KX198135</t>
@@ -484,16 +484,13 @@
     <t>KX247646</t>
   </si>
   <si>
+    <t>KU820897</t>
+  </si>
+  <si>
     <t>KX087102</t>
   </si>
   <si>
-    <t>KU820897</t>
-  </si>
-  <si>
     <t>KX156775</t>
-  </si>
-  <si>
-    <t>KX156776</t>
   </si>
   <si>
     <t>KX156774</t>
@@ -502,16 +499,19 @@
     <t>KX447510</t>
   </si>
   <si>
+    <t>KX156776</t>
+  </si>
+  <si>
     <t>KX447511</t>
+  </si>
+  <si>
+    <t>KX369547</t>
   </si>
   <si>
     <t>KX447512</t>
   </si>
   <si>
     <t>KX447513</t>
-  </si>
-  <si>
-    <t>KX369547</t>
   </si>
   <si>
     <t>KX117076</t>
@@ -523,10 +523,10 @@
     <t>KU955589</t>
   </si>
   <si>
-    <t>KU820899</t>
+    <t>KX266255</t>
   </si>
   <si>
-    <t>KX266255</t>
+    <t>KU820899</t>
   </si>
   <si>
     <t>KX185891</t>
@@ -535,10 +535,10 @@
     <t>KU963796</t>
   </si>
   <si>
-    <t>KJ776791</t>
+    <t>KX806557</t>
   </si>
   <si>
-    <t>KX806557</t>
+    <t>KJ776791</t>
   </si>
   <si>
     <t>KX447516</t>
@@ -547,10 +547,10 @@
     <t>KX447515</t>
   </si>
   <si>
-    <t>KX447514</t>
+    <t>KX447509</t>
   </si>
   <si>
-    <t>KX447509</t>
+    <t>KX447514</t>
   </si>
 </sst>
 </file>
@@ -1201,52 +1201,52 @@
         <v>79</v>
       </c>
       <c r="B4">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="C4">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="D4">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="F4">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="G4">
-        <v>0.86</v>
+        <v>0.62</v>
       </c>
       <c r="H4">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="I4">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="J4">
-        <v>0.77</v>
+        <v>0.96</v>
       </c>
       <c r="K4">
-        <v>1.23</v>
+        <v>1.04</v>
       </c>
       <c r="L4">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="M4">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="N4">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="O4">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="P4">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="Q4">
-        <v>0.79</v>
+        <v>0.65</v>
       </c>
       <c r="R4">
         <v>0.82</v>
@@ -1255,127 +1255,127 @@
         <v>1.18</v>
       </c>
       <c r="T4">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <v>1</v>
       </c>
       <c r="V4">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0.55</v>
+        <v>0.62</v>
       </c>
       <c r="X4">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="Y4">
-        <v>0.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Z4">
-        <v>0.82</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AA4">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AB4">
-        <v>0.55</v>
+        <v>0.84</v>
       </c>
       <c r="AC4">
-        <v>0.68</v>
+        <v>0.42</v>
       </c>
       <c r="AD4">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AE4">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="AF4">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AG4">
-        <v>2.53</v>
+        <v>2.75</v>
       </c>
       <c r="AH4">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AI4">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="AJ4">
-        <v>0.21</v>
+        <v>0.5</v>
       </c>
       <c r="AK4">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
       <c r="AL4">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AM4">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="AN4">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AO4">
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AQ4">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR4">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AS4">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT4">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AU4">
-        <v>1.54</v>
+        <v>1.83</v>
       </c>
       <c r="AV4">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AW4">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
       <c r="AX4">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="AY4">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AZ4">
-        <v>1.03</v>
+        <v>1.27</v>
       </c>
       <c r="BA4">
-        <v>0.62</v>
+        <v>0.78</v>
       </c>
       <c r="BB4">
-        <v>0.92</v>
+        <v>0.68</v>
       </c>
       <c r="BC4">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="BD4">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="BE4">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="BF4">
+        <v>1.05</v>
+      </c>
+      <c r="BG4">
+        <v>0.8</v>
+      </c>
+      <c r="BH4">
         <v>1.2</v>
-      </c>
-      <c r="BG4">
-        <v>0.57</v>
-      </c>
-      <c r="BH4">
-        <v>1.43</v>
       </c>
     </row>
     <row r="5" spans="1:60">
@@ -1565,52 +1565,52 @@
         <v>81</v>
       </c>
       <c r="B6">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="C6">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="D6">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="E6">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="G6">
-        <v>0.62</v>
+        <v>0.86</v>
       </c>
       <c r="H6">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="I6">
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
       <c r="J6">
-        <v>0.96</v>
+        <v>0.77</v>
       </c>
       <c r="K6">
-        <v>1.04</v>
+        <v>1.23</v>
       </c>
       <c r="L6">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="M6">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="N6">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="O6">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="P6">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="Q6">
-        <v>0.65</v>
+        <v>0.79</v>
       </c>
       <c r="R6">
         <v>0.82</v>
@@ -1619,127 +1619,127 @@
         <v>1.18</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="U6">
         <v>1</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="W6">
-        <v>0.62</v>
+        <v>0.55</v>
       </c>
       <c r="X6">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="Y6">
-        <v>0.5600000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="Z6">
-        <v>0.5600000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AA6">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AB6">
-        <v>0.84</v>
+        <v>0.55</v>
       </c>
       <c r="AC6">
-        <v>0.42</v>
+        <v>0.68</v>
       </c>
       <c r="AD6">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AE6">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF6">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AG6">
-        <v>2.75</v>
+        <v>2.53</v>
       </c>
       <c r="AH6">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AI6">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="AJ6">
-        <v>0.5</v>
+        <v>0.21</v>
       </c>
       <c r="AK6">
-        <v>0.77</v>
+        <v>0.92</v>
       </c>
       <c r="AL6">
-        <v>1.23</v>
+        <v>1.08</v>
       </c>
       <c r="AM6">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AN6">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="AQ6">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="AR6">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="AS6">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AT6">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU6">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="AV6">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AW6">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
       <c r="AX6">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="AY6">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="AZ6">
-        <v>1.27</v>
+        <v>1.03</v>
       </c>
       <c r="BA6">
-        <v>0.78</v>
+        <v>0.62</v>
       </c>
       <c r="BB6">
-        <v>0.68</v>
+        <v>0.92</v>
       </c>
       <c r="BC6">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="BD6">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="BE6">
+        <v>1.6</v>
+      </c>
+      <c r="BF6">
+        <v>1.2</v>
+      </c>
+      <c r="BG6">
+        <v>0.57</v>
+      </c>
+      <c r="BH6">
         <v>1.43</v>
-      </c>
-      <c r="BF6">
-        <v>1.05</v>
-      </c>
-      <c r="BG6">
-        <v>0.8</v>
-      </c>
-      <c r="BH6">
-        <v>1.2</v>
       </c>
     </row>
     <row r="7" spans="1:60">
@@ -3096,7 +3096,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AA14">
-        <v>1.26</v>
+        <v>1.12</v>
       </c>
       <c r="AB14">
         <v>0.84</v>
@@ -3105,7 +3105,7 @@
         <v>0.42</v>
       </c>
       <c r="AD14">
-        <v>2.51</v>
+        <v>2.65</v>
       </c>
       <c r="AE14">
         <v>0.88</v>
@@ -3278,7 +3278,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AA15">
-        <v>1.12</v>
+        <v>1.26</v>
       </c>
       <c r="AB15">
         <v>0.84</v>
@@ -3287,7 +3287,7 @@
         <v>0.42</v>
       </c>
       <c r="AD15">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="AE15">
         <v>0.88</v>
@@ -3761,22 +3761,22 @@
         <v>1.08</v>
       </c>
       <c r="F18">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="G18">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
       <c r="H18">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="I18">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="J18">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="K18">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="L18">
         <v>0.84</v>
@@ -3785,10 +3785,10 @@
         <v>1.16</v>
       </c>
       <c r="N18">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="O18">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
       <c r="P18">
         <v>0.87</v>
@@ -3797,91 +3797,91 @@
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="S18">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="U18">
         <v>1.5</v>
       </c>
       <c r="V18">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="W18">
-        <v>0.52</v>
+        <v>0.62</v>
       </c>
       <c r="X18">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="Y18">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="Z18">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AA18">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="AB18">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="AC18">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="AD18">
-        <v>2.18</v>
+        <v>2.51</v>
       </c>
       <c r="AE18">
-        <v>1.33</v>
+        <v>0.88</v>
       </c>
       <c r="AF18">
-        <v>0.67</v>
+        <v>1.12</v>
       </c>
       <c r="AG18">
         <v>2.75</v>
       </c>
       <c r="AH18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AI18">
         <v>0.25</v>
       </c>
       <c r="AJ18">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AK18">
-        <v>0.77</v>
+        <v>0.62</v>
       </c>
       <c r="AL18">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="AM18">
-        <v>2.53</v>
+        <v>2.67</v>
       </c>
       <c r="AN18">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AO18">
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.95</v>
+        <v>0.33</v>
       </c>
       <c r="AQ18">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AS18">
         <v>1.33</v>
       </c>
       <c r="AT18">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU18">
         <v>2</v>
@@ -3893,37 +3893,37 @@
         <v>0.33</v>
       </c>
       <c r="AX18">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AY18">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="AZ18">
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
       <c r="BA18">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="BB18">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="BC18">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="BD18">
         <v>1.14</v>
       </c>
       <c r="BE18">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="BF18">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="BG18">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="BH18">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:60">
@@ -3943,22 +3943,22 @@
         <v>1.08</v>
       </c>
       <c r="F19">
-        <v>1.23</v>
+        <v>1.08</v>
       </c>
       <c r="G19">
-        <v>0.77</v>
+        <v>0.92</v>
       </c>
       <c r="H19">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="I19">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="J19">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="K19">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="L19">
         <v>0.84</v>
@@ -3967,10 +3967,10 @@
         <v>1.16</v>
       </c>
       <c r="N19">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="O19">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="P19">
         <v>0.87</v>
@@ -3979,91 +3979,91 @@
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="S19">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="T19">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="U19">
         <v>1.5</v>
       </c>
       <c r="V19">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="W19">
-        <v>0.62</v>
+        <v>0.52</v>
       </c>
       <c r="X19">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="Y19">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="Z19">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="AA19">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="AB19">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AC19">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="AD19">
-        <v>2.51</v>
+        <v>2.18</v>
       </c>
       <c r="AE19">
-        <v>0.88</v>
+        <v>1.33</v>
       </c>
       <c r="AF19">
-        <v>1.12</v>
+        <v>0.67</v>
       </c>
       <c r="AG19">
         <v>2.75</v>
       </c>
       <c r="AH19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AI19">
         <v>0.25</v>
       </c>
       <c r="AJ19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AK19">
-        <v>0.62</v>
+        <v>0.77</v>
       </c>
       <c r="AL19">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="AM19">
-        <v>2.67</v>
+        <v>2.53</v>
       </c>
       <c r="AN19">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AO19">
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.33</v>
+        <v>0.95</v>
       </c>
       <c r="AQ19">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR19">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AS19">
         <v>1.33</v>
       </c>
       <c r="AT19">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU19">
         <v>2</v>
@@ -4075,37 +4075,37 @@
         <v>0.33</v>
       </c>
       <c r="AX19">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AY19">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AZ19">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="BA19">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="BB19">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="BC19">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="BD19">
         <v>1.14</v>
       </c>
       <c r="BE19">
-        <v>1.71</v>
+        <v>1.52</v>
       </c>
       <c r="BF19">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="BG19">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BH19">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="20" spans="1:60">
@@ -4113,16 +4113,16 @@
         <v>95</v>
       </c>
       <c r="B20">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="C20">
-        <v>0.9</v>
+        <v>1.23</v>
       </c>
       <c r="D20">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="E20">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="F20">
         <v>1.23</v>
@@ -4131,88 +4131,88 @@
         <v>0.77</v>
       </c>
       <c r="H20">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="I20">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
       <c r="J20">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="K20">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="L20">
-        <v>0.71</v>
+        <v>0.82</v>
       </c>
       <c r="M20">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="N20">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="O20">
         <v>0.65</v>
       </c>
       <c r="P20">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="Q20">
         <v>0.65</v>
       </c>
       <c r="R20">
-        <v>1.06</v>
+        <v>0.75</v>
       </c>
       <c r="S20">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="T20">
-        <v>0.95</v>
+        <v>1.09</v>
       </c>
       <c r="U20">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="V20">
-        <v>0.95</v>
+        <v>0.68</v>
       </c>
       <c r="W20">
-        <v>0.76</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="X20">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="Y20">
-        <v>0.27</v>
+        <v>0.53</v>
       </c>
       <c r="Z20">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
       <c r="AA20">
-        <v>1.87</v>
+        <v>1.33</v>
       </c>
       <c r="AB20">
-        <v>1.07</v>
+        <v>0.93</v>
       </c>
       <c r="AC20">
-        <v>0.53</v>
+        <v>0.4</v>
       </c>
       <c r="AD20">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AE20">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AF20">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="AG20">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AH20">
         <v>0.5</v>
       </c>
       <c r="AI20">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AJ20">
         <v>0.5</v>
@@ -4248,10 +4248,10 @@
         <v>0.49</v>
       </c>
       <c r="AU20">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="AV20">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="AW20">
         <v>0.32</v>
@@ -4260,34 +4260,34 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AY20">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AZ20">
         <v>1</v>
       </c>
       <c r="BA20">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="BB20">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="BC20">
-        <v>0.51</v>
+        <v>0.41</v>
       </c>
       <c r="BD20">
-        <v>1.13</v>
+        <v>0.92</v>
       </c>
       <c r="BE20">
-        <v>1.03</v>
+        <v>1.23</v>
       </c>
       <c r="BF20">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="BG20">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="BH20">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="1:60">
@@ -4295,16 +4295,16 @@
         <v>96</v>
       </c>
       <c r="B21">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="C21">
-        <v>1.23</v>
+        <v>1.03</v>
       </c>
       <c r="D21">
-        <v>0.51</v>
+        <v>0.41</v>
       </c>
       <c r="E21">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="F21">
         <v>1.23</v>
@@ -4313,16 +4313,16 @@
         <v>0.77</v>
       </c>
       <c r="H21">
-        <v>1.15</v>
+        <v>1.28</v>
       </c>
       <c r="I21">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="J21">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>0.82</v>
@@ -4331,73 +4331,73 @@
         <v>1.18</v>
       </c>
       <c r="N21">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="O21">
         <v>0.65</v>
       </c>
       <c r="P21">
-        <v>0.87</v>
+        <v>1.02</v>
       </c>
       <c r="Q21">
         <v>0.65</v>
       </c>
       <c r="R21">
-        <v>0.75</v>
+        <v>1.29</v>
       </c>
       <c r="S21">
-        <v>1.25</v>
+        <v>0.71</v>
       </c>
       <c r="T21">
+        <v>0.95</v>
+      </c>
+      <c r="U21">
         <v>1.09</v>
       </c>
-      <c r="U21">
-        <v>1.23</v>
-      </c>
       <c r="V21">
-        <v>0.68</v>
+        <v>0.95</v>
       </c>
       <c r="W21">
-        <v>0.6899999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="X21">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="Y21">
-        <v>0.53</v>
+        <v>0.27</v>
       </c>
       <c r="Z21">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="AA21">
-        <v>1.33</v>
+        <v>2.13</v>
       </c>
       <c r="AB21">
         <v>0.93</v>
       </c>
       <c r="AC21">
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
       <c r="AD21">
-        <v>2.4</v>
+        <v>1.87</v>
       </c>
       <c r="AE21">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AF21">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AG21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AH21">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AI21">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AJ21">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AK21">
         <v>1.08</v>
@@ -4430,10 +4430,10 @@
         <v>0.49</v>
       </c>
       <c r="AU21">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="AV21">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="AW21">
         <v>0.32</v>
@@ -4442,28 +4442,28 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AY21">
+        <v>1.5</v>
+      </c>
+      <c r="AZ21">
+        <v>0.9</v>
+      </c>
+      <c r="BA21">
+        <v>0.4</v>
+      </c>
+      <c r="BB21">
         <v>1.2</v>
       </c>
-      <c r="AZ21">
-        <v>1</v>
-      </c>
-      <c r="BA21">
-        <v>0.7</v>
-      </c>
-      <c r="BB21">
-        <v>1.1</v>
-      </c>
       <c r="BC21">
-        <v>0.41</v>
+        <v>0.51</v>
       </c>
       <c r="BD21">
-        <v>0.92</v>
+        <v>1.13</v>
       </c>
       <c r="BE21">
-        <v>1.23</v>
+        <v>1.03</v>
       </c>
       <c r="BF21">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="BG21">
         <v>1.4</v>
@@ -4659,16 +4659,16 @@
         <v>98</v>
       </c>
       <c r="B23">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="C23">
-        <v>1.03</v>
+        <v>0.9</v>
       </c>
       <c r="D23">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="E23">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="F23">
         <v>1.23</v>
@@ -4683,34 +4683,34 @@
         <v>0.72</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="L23">
-        <v>0.82</v>
+        <v>0.71</v>
       </c>
       <c r="M23">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="N23">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="O23">
         <v>0.65</v>
       </c>
       <c r="P23">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="Q23">
         <v>0.65</v>
       </c>
       <c r="R23">
-        <v>1.29</v>
+        <v>1.06</v>
       </c>
       <c r="S23">
-        <v>0.71</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="T23">
         <v>0.95</v>
@@ -4734,16 +4734,16 @@
         <v>0.27</v>
       </c>
       <c r="AA23">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="AB23">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AC23">
         <v>0.53</v>
       </c>
       <c r="AD23">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AE23">
         <v>0.88</v>
@@ -4755,13 +4755,13 @@
         <v>2.25</v>
       </c>
       <c r="AH23">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AI23">
         <v>0.75</v>
       </c>
       <c r="AJ23">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AK23">
         <v>1.08</v>
@@ -4809,13 +4809,13 @@
         <v>1.5</v>
       </c>
       <c r="AZ23">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="BA23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="BB23">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="BC23">
         <v>0.51</v>
@@ -4830,10 +4830,10 @@
         <v>1.33</v>
       </c>
       <c r="BG23">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="BH23">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:60">
@@ -5023,16 +5023,16 @@
         <v>100</v>
       </c>
       <c r="B25">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="C25">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="D25">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="E25">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="F25">
         <v>1.23</v>
@@ -5059,16 +5059,16 @@
         <v>1.18</v>
       </c>
       <c r="N25">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="O25">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="P25">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="Q25">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
       <c r="R25">
         <v>1.41</v>
@@ -5095,13 +5095,13 @@
         <v>0.27</v>
       </c>
       <c r="Z25">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
       <c r="AA25">
         <v>1.87</v>
       </c>
       <c r="AB25">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="AC25">
         <v>0.53</v>
@@ -5119,13 +5119,13 @@
         <v>2.25</v>
       </c>
       <c r="AH25">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AI25">
         <v>0.75</v>
       </c>
       <c r="AJ25">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AK25">
         <v>1.23</v>
@@ -5152,46 +5152,46 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT25">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="AU25">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AV25">
+        <v>1.3</v>
+      </c>
+      <c r="AW25">
+        <v>0.32</v>
+      </c>
+      <c r="AX25">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AY25">
         <v>1.5</v>
       </c>
-      <c r="AW25">
-        <v>0.33</v>
-      </c>
-      <c r="AX25">
-        <v>0.67</v>
-      </c>
-      <c r="AY25">
-        <v>1.46</v>
-      </c>
       <c r="AZ25">
-        <v>0.98</v>
+        <v>1.1</v>
       </c>
       <c r="BA25">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="BB25">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="BC25">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="BD25">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="BE25">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="BF25">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="BG25">
         <v>1.4</v>
@@ -5205,16 +5205,16 @@
         <v>101</v>
       </c>
       <c r="B26">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="C26">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="D26">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="E26">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="F26">
         <v>1.23</v>
@@ -5241,16 +5241,16 @@
         <v>1.18</v>
       </c>
       <c r="N26">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="O26">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
       <c r="P26">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="Q26">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="R26">
         <v>1.41</v>
@@ -5277,13 +5277,13 @@
         <v>0.27</v>
       </c>
       <c r="Z26">
-        <v>0.27</v>
+        <v>0.13</v>
       </c>
       <c r="AA26">
         <v>1.87</v>
       </c>
       <c r="AB26">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AC26">
         <v>0.53</v>
@@ -5301,13 +5301,13 @@
         <v>2.25</v>
       </c>
       <c r="AH26">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AI26">
         <v>0.75</v>
       </c>
       <c r="AJ26">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AK26">
         <v>1.23</v>
@@ -5334,46 +5334,46 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT26">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AU26">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AV26">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AW26">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="AX26">
-        <v>0.8100000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AY26">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AZ26">
-        <v>1.1</v>
+        <v>0.98</v>
       </c>
       <c r="BA26">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="BB26">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="BC26">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="BD26">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="BE26">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="BF26">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="BG26">
         <v>1.4</v>
@@ -9427,7 +9427,7 @@
         <v>1.18</v>
       </c>
       <c r="N49">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="O49">
         <v>0.73</v>
@@ -9436,7 +9436,7 @@
         <v>0.95</v>
       </c>
       <c r="Q49">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="R49">
         <v>1.41</v>
@@ -9454,28 +9454,28 @@
         <v>0.95</v>
       </c>
       <c r="W49">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="X49">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="Y49">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="Z49">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="AA49">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AB49">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AC49">
-        <v>0.65</v>
+        <v>0.53</v>
       </c>
       <c r="AD49">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="AE49">
         <v>1</v>
@@ -9484,13 +9484,13 @@
         <v>1</v>
       </c>
       <c r="AG49">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AH49">
         <v>0.5</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AJ49">
         <v>0.5</v>
@@ -9532,10 +9532,10 @@
         <v>1.3</v>
       </c>
       <c r="AW49">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="AX49">
-        <v>0.97</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AY49">
         <v>1.5</v>
@@ -9550,16 +9550,16 @@
         <v>1.2</v>
       </c>
       <c r="BC49">
-        <v>0.43</v>
+        <v>0.53</v>
       </c>
       <c r="BD49">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BE49">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="BF49">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BG49">
         <v>1.4</v>
@@ -9609,16 +9609,16 @@
         <v>1.18</v>
       </c>
       <c r="N50">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="O50">
         <v>0.73</v>
       </c>
       <c r="P50">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="Q50">
-        <v>0.51</v>
+        <v>0.58</v>
       </c>
       <c r="R50">
         <v>1.41</v>
@@ -9636,10 +9636,10 @@
         <v>0.95</v>
       </c>
       <c r="W50">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="X50">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="Y50">
         <v>0.27</v>
@@ -9791,13 +9791,13 @@
         <v>1.18</v>
       </c>
       <c r="N51">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="O51">
         <v>0.73</v>
       </c>
       <c r="P51">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="Q51">
         <v>0.58</v>
@@ -9824,37 +9824,37 @@
         <v>1.17</v>
       </c>
       <c r="Y51">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="Z51">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="AA51">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AB51">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AC51">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="AD51">
+        <v>1.96</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
+      </c>
+      <c r="AF51">
+        <v>1</v>
+      </c>
+      <c r="AG51">
         <v>2</v>
       </c>
-      <c r="AE51">
-        <v>1</v>
-      </c>
-      <c r="AF51">
-        <v>1</v>
-      </c>
-      <c r="AG51">
-        <v>2.25</v>
-      </c>
       <c r="AH51">
         <v>0.5</v>
       </c>
       <c r="AI51">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AJ51">
         <v>0.5</v>
@@ -9896,10 +9896,10 @@
         <v>1.3</v>
       </c>
       <c r="AW51">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="AX51">
-        <v>0.8100000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AY51">
         <v>1.5</v>
@@ -9914,16 +9914,16 @@
         <v>1.2</v>
       </c>
       <c r="BC51">
-        <v>0.53</v>
+        <v>0.43</v>
       </c>
       <c r="BD51">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BE51">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="BF51">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BG51">
         <v>1.4</v>
@@ -10119,16 +10119,16 @@
         <v>128</v>
       </c>
       <c r="B53">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="C53">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="E53">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="F53">
         <v>1.23</v>
@@ -10161,10 +10161,10 @@
         <v>0.73</v>
       </c>
       <c r="P53">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="Q53">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="R53">
         <v>1.41</v>
@@ -10176,10 +10176,10 @@
         <v>0.95</v>
       </c>
       <c r="U53">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="V53">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="W53">
         <v>0.83</v>
@@ -10194,13 +10194,13 @@
         <v>0.27</v>
       </c>
       <c r="AA53">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AB53">
         <v>1.07</v>
       </c>
       <c r="AC53">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="AD53">
         <v>1.87</v>
@@ -10266,16 +10266,16 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AY53">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AZ53">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="BA53">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="BB53">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="BC53">
         <v>0.53</v>
@@ -10301,16 +10301,16 @@
         <v>129</v>
       </c>
       <c r="B54">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="D54">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="E54">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="F54">
         <v>1.23</v>
@@ -10343,10 +10343,10 @@
         <v>0.73</v>
       </c>
       <c r="P54">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="Q54">
-        <v>0.51</v>
+        <v>0.58</v>
       </c>
       <c r="R54">
         <v>1.41</v>
@@ -10358,10 +10358,10 @@
         <v>0.95</v>
       </c>
       <c r="U54">
-        <v>1.23</v>
+        <v>1.09</v>
       </c>
       <c r="V54">
-        <v>0.82</v>
+        <v>0.95</v>
       </c>
       <c r="W54">
         <v>0.83</v>
@@ -10376,13 +10376,13 @@
         <v>0.27</v>
       </c>
       <c r="AA54">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AB54">
         <v>1.07</v>
       </c>
       <c r="AC54">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AD54">
         <v>1.87</v>
@@ -10448,16 +10448,16 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AY54">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AZ54">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="BA54">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="BB54">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="BC54">
         <v>0.53</v>
@@ -11456,10 +11456,10 @@
         <v>0.95</v>
       </c>
       <c r="W60">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="X60">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="Y60">
         <v>0.27</v>
@@ -11504,19 +11504,19 @@
         <v>0.77</v>
       </c>
       <c r="AM60">
-        <v>2.53</v>
+        <v>2.67</v>
       </c>
       <c r="AN60">
-        <v>2.53</v>
+        <v>2.33</v>
       </c>
       <c r="AO60">
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ60">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="AR60">
         <v>0</v>
@@ -11638,10 +11638,10 @@
         <v>0.95</v>
       </c>
       <c r="W61">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="X61">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="Y61">
         <v>0.27</v>
@@ -11686,19 +11686,19 @@
         <v>0.77</v>
       </c>
       <c r="AM61">
-        <v>2.67</v>
+        <v>2.53</v>
       </c>
       <c r="AN61">
-        <v>2.33</v>
+        <v>2.53</v>
       </c>
       <c r="AO61">
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AQ61">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR61">
         <v>0</v>
@@ -12432,10 +12432,10 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="AT65">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="AU65">
         <v>1.95</v>
@@ -12796,10 +12796,10 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="AT67">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AU67">
         <v>1.95</v>
@@ -13300,10 +13300,10 @@
         <v>2</v>
       </c>
       <c r="AE70">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AF70">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AG70">
         <v>2.25</v>
@@ -13342,10 +13342,10 @@
         <v>0</v>
       </c>
       <c r="AS70">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AT70">
-        <v>0.32</v>
+        <v>0.49</v>
       </c>
       <c r="AU70">
         <v>1.95</v>
@@ -13360,16 +13360,16 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AY70">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="AZ70">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="BA70">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="BB70">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="BC70">
         <v>0.53</v>
@@ -13482,10 +13482,10 @@
         <v>2</v>
       </c>
       <c r="AE71">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AF71">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="AG71">
         <v>2.25</v>
@@ -13524,10 +13524,10 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AT71">
-        <v>0.49</v>
+        <v>0.32</v>
       </c>
       <c r="AU71">
         <v>1.95</v>
@@ -13542,16 +13542,16 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AY71">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="AZ71">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="BA71">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="BB71">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="BC71">
         <v>0.53</v>
@@ -16018,7 +16018,7 @@
         <v>0.27</v>
       </c>
       <c r="AA85">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="AB85">
         <v>1.07</v>
@@ -16027,7 +16027,7 @@
         <v>0.53</v>
       </c>
       <c r="AD85">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AE85">
         <v>1</v>
@@ -16105,13 +16105,13 @@
         <v>0.53</v>
       </c>
       <c r="BD85">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="BE85">
         <v>0.95</v>
       </c>
       <c r="BF85">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="BG85">
         <v>1.4</v>
@@ -16200,7 +16200,7 @@
         <v>0.27</v>
       </c>
       <c r="AA86">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="AB86">
         <v>1.07</v>
@@ -16209,7 +16209,7 @@
         <v>0.53</v>
       </c>
       <c r="AD86">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AE86">
         <v>1</v>
@@ -16287,13 +16287,13 @@
         <v>0.53</v>
       </c>
       <c r="BD86">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="BE86">
         <v>0.95</v>
       </c>
       <c r="BF86">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="BG86">
         <v>1.4</v>
@@ -16570,10 +16570,10 @@
         <v>1.07</v>
       </c>
       <c r="AC88">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="AD88">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AE88">
         <v>1</v>
@@ -16585,13 +16585,13 @@
         <v>2.25</v>
       </c>
       <c r="AH88">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AI88">
         <v>0.75</v>
       </c>
       <c r="AJ88">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AK88">
         <v>1.23</v>
@@ -16752,10 +16752,10 @@
         <v>1.07</v>
       </c>
       <c r="AC89">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AD89">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AE89">
         <v>1</v>
@@ -16767,13 +16767,13 @@
         <v>2.25</v>
       </c>
       <c r="AH89">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AI89">
         <v>0.75</v>
       </c>
       <c r="AJ89">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AK89">
         <v>1.23</v>
@@ -18312,13 +18312,13 @@
         <v>1.33</v>
       </c>
       <c r="C98">
-        <v>0.92</v>
+        <v>1.03</v>
       </c>
       <c r="D98">
         <v>0.41</v>
       </c>
       <c r="E98">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="F98">
         <v>1.23</v>
@@ -18471,13 +18471,13 @@
         <v>0.53</v>
       </c>
       <c r="BD98">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="BE98">
         <v>0.95</v>
       </c>
       <c r="BF98">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="BG98">
         <v>1.4</v>
@@ -18494,13 +18494,13 @@
         <v>1.33</v>
       </c>
       <c r="C99">
-        <v>1.03</v>
+        <v>0.92</v>
       </c>
       <c r="D99">
         <v>0.41</v>
       </c>
       <c r="E99">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="F99">
         <v>1.23</v>
@@ -18653,13 +18653,13 @@
         <v>0.53</v>
       </c>
       <c r="BD99">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="BE99">
         <v>0.95</v>
       </c>
       <c r="BF99">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="BG99">
         <v>1.4</v>
@@ -19073,13 +19073,13 @@
         <v>1.18</v>
       </c>
       <c r="N102">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="O102">
         <v>0.73</v>
       </c>
       <c r="P102">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
       <c r="Q102">
         <v>0.58</v>
@@ -19157,13 +19157,13 @@
         <v>0</v>
       </c>
       <c r="AP102">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AQ102">
         <v>0.33</v>
       </c>
       <c r="AR102">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AS102">
         <v>1.3</v>
@@ -19255,13 +19255,13 @@
         <v>1.18</v>
       </c>
       <c r="N103">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="O103">
         <v>0.73</v>
       </c>
       <c r="P103">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="Q103">
         <v>0.58</v>
@@ -19339,13 +19339,13 @@
         <v>0</v>
       </c>
       <c r="AP103">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AQ103">
         <v>0.33</v>
       </c>
       <c r="AR103">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AS103">
         <v>1.3</v>
